--- a/notebooks/PNPLA6/input/PNPLA6_OMCS_individuals.xlsx
+++ b/notebooks/PNPLA6/input/PNPLA6_OMCS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/PNPLA6/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044934F6-4002-604D-B5A8-26D015470844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE913F1-7338-3148-A27C-9AB382F60AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="3240" windowWidth="28000" windowHeight="8540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3020" windowWidth="28000" windowHeight="8540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="178">
   <si>
     <t>PMID</t>
   </si>
@@ -462,6 +462,111 @@
   </si>
   <si>
     <t>c.2149G&gt;C</t>
+  </si>
+  <si>
+    <t>PMID:32758583</t>
+  </si>
+  <si>
+    <t>Identification of Oliver-McFarlane syndrome caused by novel compound heterozygous variants of PNPLA6</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>P5M</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>HP:0001250</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>HP:0000252</t>
+  </si>
+  <si>
+    <t>Delayed CNS myelination</t>
+  </si>
+  <si>
+    <t>HP:0002188</t>
+  </si>
+  <si>
+    <t>Periventricular leukomalacia</t>
+  </si>
+  <si>
+    <t>HP:0006970</t>
+  </si>
+  <si>
+    <t>Thin corpus callosum</t>
+  </si>
+  <si>
+    <t>HP:0033725</t>
+  </si>
+  <si>
+    <t>c.1608G&gt;T</t>
+  </si>
+  <si>
+    <t>NM_006702.5:c.1491G&gt;T=NM_001166114.2:c.1608G&gt;T=NP_001159586.1:p.(Gln536His);NM_006702.5:c.3367G&gt;A=NM_001166114.2:c.3481G&gt;A=NP_001159586.1:p.(Gly1161Arg)</t>
+  </si>
+  <si>
+    <t>c.3481G&gt;A</t>
+  </si>
+  <si>
+    <t>Thick eyebrow</t>
+  </si>
+  <si>
+    <t>HP:0000574</t>
+  </si>
+  <si>
+    <t>Decreased circulating luteinizing hormone level</t>
+  </si>
+  <si>
+    <t>HP:0030344</t>
+  </si>
+  <si>
+    <t>Decreased circulating follicle stimulating hormone concentration</t>
+  </si>
+  <si>
+    <t>HP:0030341</t>
+  </si>
+  <si>
+    <t>Decreased serum testosterone concentration</t>
+  </si>
+  <si>
+    <t>HP:0040171</t>
+  </si>
+  <si>
+    <t>Abnormality of circulating cortisol level</t>
+  </si>
+  <si>
+    <t>HP:0011731</t>
+  </si>
+  <si>
+    <t>Premature birth</t>
+  </si>
+  <si>
+    <t>HP:0001622</t>
+  </si>
+  <si>
+    <t>Rod-cone dystrophy</t>
+  </si>
+  <si>
+    <t>HP:0000510</t>
   </si>
 </sst>
 </file>
@@ -839,15 +944,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE10"/>
+  <dimension ref="A1:BR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,121 +1011,160 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="BM1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1079,121 +1223,160 @@
         <v>54</v>
       </c>
       <c r="T2" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN2" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AO2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AP2" t="s">
         <v>66</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AQ2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR2" t="s">
         <v>67</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AS2" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AT2" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AV2" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AW2" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AX2" t="s">
         <v>73</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
         <v>105</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AZ2" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BA2" t="s">
         <v>75</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BB2" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BC2" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BD2" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BE2" t="s">
         <v>89</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BF2" t="s">
         <v>91</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BG2" t="s">
         <v>93</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BH2" t="s">
         <v>98</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BI2" t="s">
         <v>126</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BJ2" t="s">
         <v>130</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BK2" t="s">
         <v>132</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BL2" t="s">
         <v>134</v>
       </c>
+      <c r="BM2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1245,11 +1428,8 @@
       <c r="R3" t="s">
         <v>79</v>
       </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>79</v>
+      <c r="V3" t="s">
+        <v>52</v>
       </c>
       <c r="Y3" t="s">
         <v>79</v>
@@ -1263,62 +1443,65 @@
       <c r="AB3" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AC3" t="s">
         <v>79</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AD3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AP3" t="s">
         <v>79</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
         <v>79</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BD3" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BE3" t="s">
         <v>79</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BF3" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BG3" t="s">
         <v>79</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BH3" t="s">
         <v>79</v>
       </c>
-      <c r="BB3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BI3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL3" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -1364,53 +1547,54 @@
       <c r="R4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN4" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AW4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL4" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1456,53 +1640,54 @@
       <c r="R5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="V5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN5" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AW5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL5" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1548,53 +1733,54 @@
       <c r="R6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>124</v>
+      <c r="AQ6" s="3"/>
+      <c r="AW6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="BA6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -1640,53 +1826,54 @@
       <c r="R7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="V7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AQ7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>84</v>
+      <c r="AQ7" s="3"/>
+      <c r="AW7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1732,53 +1919,54 @@
       <c r="R8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="V8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN8" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AQ8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>124</v>
+      <c r="AQ8" s="3"/>
+      <c r="AW8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL8" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1824,34 +2012,29 @@
       <c r="R9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="V9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AQ9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU9" s="3" t="s">
+      <c r="AQ9" s="3"/>
+      <c r="AW9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="BA9" s="3" t="s">
@@ -1860,18 +2043,129 @@
       <c r="BB9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BC9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE9" s="3" t="s">
+      <c r="BH9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AC10" s="3"/>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AG10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
